--- a/ProgectsUniversity/Пукич/laba3.xlsx
+++ b/ProgectsUniversity/Пукич/laba3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Валера\3_kurs\3_kurs\ProgectsUniversity\Пукич\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876E020B-66D5-48E6-B034-9E4517FB4315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лебедев 13 вариант" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,24 +137,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -163,13 +152,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,23 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,553 +506,553 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="2">
         <f>N15/N8</f>
-        <v>5.1999999999993358</v>
-      </c>
-      <c r="L2" s="4" t="s">
+        <v>5.1142857142857885</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="P2" s="6" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="P2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="2">
         <f>R15/N8</f>
-        <v>1.0000000000000984</v>
-      </c>
-      <c r="L3" s="3">
+        <v>-1.1428571428571739</v>
+      </c>
+      <c r="L3" s="5">
         <f>J11</f>
         <v>55</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <f>J12</f>
-        <v>101</v>
-      </c>
-      <c r="N3" s="3">
+        <v>96</v>
+      </c>
+      <c r="N3" s="5">
         <f>J17</f>
         <v>15</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="5">
         <f>J13</f>
-        <v>411</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="5">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="J4" s="2">
         <f>V15/N8</f>
-        <v>1.5999999999999659</v>
-      </c>
-      <c r="L4" s="3">
+        <v>3.2285714285714517</v>
+      </c>
+      <c r="L4" s="5">
         <f>J12</f>
-        <v>101</v>
-      </c>
-      <c r="M4" s="3">
+        <v>96</v>
+      </c>
+      <c r="M4" s="5">
         <f>J14</f>
-        <v>186</v>
-      </c>
-      <c r="N4" s="3">
+        <v>169</v>
+      </c>
+      <c r="N4" s="5">
         <f>J18</f>
-        <v>28</v>
-      </c>
-      <c r="P4" s="3">
+        <v>27</v>
+      </c>
+      <c r="P4" s="5">
         <f>J15</f>
-        <v>756</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <f>J2*C2+J3*C3+J4</f>
-        <v>8.799999999999498</v>
-      </c>
-      <c r="D5" s="7">
+        <v>6.0571428571428925</v>
+      </c>
+      <c r="D5" s="2">
         <f>J2*D2+J3*D3+J4</f>
-        <v>15.99999999999903</v>
-      </c>
-      <c r="E5" s="7">
+        <v>8.8857142857143323</v>
+      </c>
+      <c r="E5" s="2">
         <f>J2*E2+J3*E3+J4</f>
-        <v>23.199999999998564</v>
-      </c>
-      <c r="F5" s="7">
+        <v>11.714285714285776</v>
+      </c>
+      <c r="F5" s="2">
         <f>J2*F2+J3*F3+J4</f>
-        <v>29.399999999997998</v>
-      </c>
-      <c r="G5" s="7">
+        <v>15.68571428571439</v>
+      </c>
+      <c r="G5" s="2">
         <f>J2*G2+J3*G3+J4</f>
-        <v>36.599999999997529</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>19.657142857143004</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="2">
         <f>M19</f>
-        <v>0.69282032302755014</v>
-      </c>
-      <c r="L5" s="3">
+        <v>0.37032803990902069</v>
+      </c>
+      <c r="L5" s="5">
         <f>J17</f>
         <v>15</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <f>J18</f>
-        <v>28</v>
-      </c>
-      <c r="N5" s="3">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5">
         <v>5</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="5">
         <f>J19</f>
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f>MDETERM(L3:N5)</f>
-        <v>15.000000000000451</v>
+        <v>34.999999999999396</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="T10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <f>C2^2</f>
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <f t="shared" ref="D11:G11" si="0">D2^2</f>
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <f>SUM(C11:G11)</f>
         <v>55</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <f>P3</f>
-        <v>411</v>
-      </c>
-      <c r="M11" s="3">
-        <f>M3</f>
-        <v>101</v>
-      </c>
-      <c r="N11" s="3">
-        <f>N3</f>
+        <v>220</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:N13" si="1">M3</f>
+        <v>96</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <f>L3</f>
         <v>55</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="5">
         <f>P3</f>
-        <v>411</v>
-      </c>
-      <c r="R11" s="3">
+        <v>220</v>
+      </c>
+      <c r="R11" s="5">
         <f>N11</f>
         <v>15</v>
       </c>
-      <c r="T11" s="3">
-        <f>L3</f>
+      <c r="T11" s="5">
+        <f t="shared" ref="T11:U13" si="2">L3</f>
         <v>55</v>
       </c>
-      <c r="U11" s="3">
-        <f>M3</f>
-        <v>101</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="U11" s="5">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V11" s="5">
         <f>P3</f>
-        <v>411</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <f>C2*C3</f>
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:G12" si="1">D2*D3</f>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:G12" si="3">D2*D3</f>
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5">
+        <f>SUM(C12:G12)</f>
+        <v>96</v>
+      </c>
+      <c r="L12" s="5">
+        <f>P4</f>
+        <v>385</v>
+      </c>
+      <c r="M12" s="5">
         <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="P12" s="5">
+        <f>L4</f>
+        <v>96</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>P4</f>
+        <v>385</v>
+      </c>
+      <c r="R12" s="5">
+        <f>N12</f>
+        <v>27</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="V12" s="5">
+        <f>P4</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4*C2</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:G13" si="4">D4*D2</f>
         <v>18</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E13" s="5">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5">
+        <f>SUM(C13:G13)</f>
+        <v>220</v>
+      </c>
+      <c r="L13" s="5">
+        <f>P5</f>
+        <v>62</v>
+      </c>
+      <c r="M13" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G12" s="3">
+        <v>27</v>
+      </c>
+      <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="3">
-        <f>SUM(C12:G12)</f>
-        <v>101</v>
-      </c>
-      <c r="L12" s="3">
-        <f>P4</f>
-        <v>756</v>
-      </c>
-      <c r="M12" s="3">
-        <f>M4</f>
-        <v>186</v>
-      </c>
-      <c r="N12" s="3">
-        <f>N4</f>
-        <v>28</v>
-      </c>
-      <c r="P12" s="3">
-        <f>L4</f>
-        <v>101</v>
-      </c>
-      <c r="Q12" s="3">
-        <f>P4</f>
-        <v>756</v>
-      </c>
-      <c r="R12" s="3">
-        <f>N12</f>
-        <v>28</v>
-      </c>
-      <c r="T12" s="3">
-        <f>L4</f>
-        <v>101</v>
-      </c>
-      <c r="U12" s="3">
-        <f>M4</f>
-        <v>186</v>
-      </c>
-      <c r="V12" s="3">
-        <f>P4</f>
-        <v>756</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <f>C4*C2</f>
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" ref="D13:G13" si="2">D4*D2</f>
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3">
-        <f>SUM(C13:G13)</f>
-        <v>411</v>
-      </c>
-      <c r="L13" s="3">
-        <f>P5</f>
-        <v>114</v>
-      </c>
-      <c r="M13" s="3">
-        <f>M5</f>
-        <v>28</v>
-      </c>
-      <c r="N13" s="3">
-        <f>N5</f>
         <v>5</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <f>L5</f>
         <v>15</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="5">
         <f>P5</f>
-        <v>114</v>
-      </c>
-      <c r="R13" s="3">
+        <v>62</v>
+      </c>
+      <c r="R13" s="5">
         <f>N13</f>
         <v>5</v>
       </c>
-      <c r="T13" s="3">
-        <f>L5</f>
+      <c r="T13" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U13" s="3">
-        <f>M5</f>
-        <v>28</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="U13" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="V13" s="5">
         <f>P5</f>
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <f>C3^2</f>
         <v>4</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:G14" si="3">D3^2</f>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:G14" si="5">D3^2</f>
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="3"/>
+      <c r="E14" s="5">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="3"/>
+      <c r="F14" s="5">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <f>SUM(C14:G14)</f>
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <f>C4*C3</f>
-        <v>18</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15:G15" si="4">D4*D3</f>
-        <v>60</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="4"/>
-        <v>324</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:G15" si="6">D4*D3</f>
+        <v>36</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <f>SUM(C15:G15)</f>
-        <v>756</v>
+        <v>385</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <f>MDETERM(L11:N13)</f>
-        <v>77.999999999992383</v>
+        <v>178.99999999999952</v>
       </c>
       <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <f>MDETERM(P11:R13)</f>
-        <v>15.000000000001927</v>
+        <v>-40.000000000000398</v>
       </c>
       <c r="T15" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <f>MDETERM(T11:V13)</f>
-        <v>24.00000000000021</v>
+        <v>112.99999999999886</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="I17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <f>SUM(C2:G2)</f>
         <v>15</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="3">
+      <c r="M17" s="6"/>
+      <c r="N17" s="5">
         <f>(C4-C5)^2</f>
-        <v>4.0000000000200799E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" ref="O17:R17" si="5">(D4-D5)^2</f>
-        <v>0.99999999999806022</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.64000000000229762</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3600000000024019</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.35999999999703447</v>
+        <v>3.2653061224530168E-3</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" ref="O17:R17" si="7">(D4-D5)^2</f>
+        <v>1.3061224489785269E-2</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="7"/>
+        <v>8.16326530611894E-2</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.47020408163279587</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11755102040806255</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="5">
         <f>SUM(C3:G3)</f>
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="5">
+        <f>SUM(N17:R17)/5</f>
+        <v>0.13714285714285721</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5">
+        <f>SUM(C4:G4)</f>
+        <v>62</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="3">
-        <f>SUM(N17:R17)/5</f>
-        <v>0.47999999999999898</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="3">
-        <f>SUM(C4:G4)</f>
-        <v>114</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="M19" s="5">
         <f>SQRT(M18)</f>
-        <v>0.69282032302755014</v>
+        <v>0.37032803990902069</v>
       </c>
     </row>
   </sheetData>
